--- a/exercise-solutions/ch-1-solutions.xlsx
+++ b/exercise-solutions/ch-1-solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\advancing-into-analytics-book\solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\exercise-solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866A5FB1-6B7F-4198-82FD-6D0DA1B33B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8A9859-8F4B-432D-BC12-7AA70B417D5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{958DCFEE-4AB2-4755-A486-06FC85619825}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{958DCFEE-4AB2-4755-A486-06FC85619825}"/>
   </bookViews>
   <sheets>
     <sheet name="housing" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -309,7 +309,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -365,7 +365,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{4A2D65FF-1CD5-4932-8CE1-4E1DCFFDC1B1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>lotsize</cx:v>
             </cx:txData>
           </cx:tx>
@@ -394,7 +394,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -453,7 +453,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1A02C346-5C2E-49F0-B0A8-D16080FA045A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>lotsize</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1630,8 +1630,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1219200" y="7639050"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="1280160" y="7322820"/>
+              <a:ext cx="3368040" cy="2636520"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1708,8 +1708,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6410325" y="7639050"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5330190" y="7322820"/>
+              <a:ext cx="4785360" cy="2636520"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9998,7 +9998,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0ECA6786-C04C-4D89-9272-F526FAE09384}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0ECA6786-C04C-4D89-9272-F526FAE09384}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C17:F21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -10430,17 +10430,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.15625" customWidth="1"/>
+    <col min="5" max="5" width="10.41796875" customWidth="1"/>
+    <col min="7" max="7" width="11.26171875" customWidth="1"/>
+    <col min="8" max="8" width="10.578125" customWidth="1"/>
+    <col min="9" max="9" width="10.26171875" customWidth="1"/>
+    <col min="12" max="13" width="10.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -13310,7 +13310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
@@ -14171,7 +14171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
@@ -14376,7 +14376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
@@ -14458,7 +14458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>101</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>102</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>103</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>104</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>105</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>106</v>
       </c>
@@ -14827,7 +14827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>107</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>108</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>109</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>110</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>111</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>112</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>113</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>114</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>115</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>116</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>117</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>118</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>119</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>120</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>121</v>
       </c>
@@ -15442,7 +15442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>122</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>123</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>124</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>125</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>126</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>127</v>
       </c>
@@ -15688,7 +15688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>128</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>129</v>
       </c>
@@ -15770,7 +15770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>130</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>131</v>
       </c>
@@ -15852,7 +15852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>132</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>133</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>134</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>135</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>136</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>137</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>138</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>139</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>140</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>141</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>142</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>143</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>144</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>145</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>146</v>
       </c>
@@ -16467,7 +16467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>147</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>148</v>
       </c>
@@ -16549,7 +16549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>149</v>
       </c>
@@ -16590,7 +16590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>150</v>
       </c>
@@ -16631,7 +16631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>151</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>152</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>153</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>154</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>155</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>156</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>157</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>158</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>159</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>160</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>161</v>
       </c>
@@ -17082,7 +17082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>162</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>163</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>164</v>
       </c>
@@ -17205,7 +17205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>165</v>
       </c>
@@ -17246,7 +17246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>166</v>
       </c>
@@ -17287,7 +17287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>167</v>
       </c>
@@ -17328,7 +17328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>168</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>169</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>170</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>171</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>172</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>173</v>
       </c>
@@ -17574,7 +17574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>174</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>175</v>
       </c>
@@ -17656,7 +17656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>176</v>
       </c>
@@ -17697,7 +17697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>177</v>
       </c>
@@ -17738,7 +17738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>178</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>179</v>
       </c>
@@ -17820,7 +17820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>180</v>
       </c>
@@ -17861,7 +17861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>181</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>182</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>183</v>
       </c>
@@ -17984,7 +17984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>184</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>185</v>
       </c>
@@ -18066,7 +18066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>186</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>187</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>188</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>189</v>
       </c>
@@ -18230,7 +18230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>190</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>191</v>
       </c>
@@ -18312,7 +18312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>192</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>193</v>
       </c>
@@ -18394,7 +18394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>194</v>
       </c>
@@ -18435,7 +18435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>195</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>196</v>
       </c>
@@ -18517,7 +18517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>197</v>
       </c>
@@ -18558,7 +18558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>198</v>
       </c>
@@ -18599,7 +18599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>199</v>
       </c>
@@ -18640,7 +18640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>200</v>
       </c>
@@ -18681,7 +18681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>201</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>202</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>203</v>
       </c>
@@ -18804,7 +18804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>204</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>205</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>206</v>
       </c>
@@ -18927,7 +18927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>207</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>208</v>
       </c>
@@ -19009,7 +19009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>209</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>210</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>211</v>
       </c>
@@ -19132,7 +19132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>212</v>
       </c>
@@ -19173,7 +19173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>213</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>214</v>
       </c>
@@ -19255,7 +19255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>215</v>
       </c>
@@ -19296,7 +19296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>216</v>
       </c>
@@ -19337,7 +19337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>217</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>218</v>
       </c>
@@ -19419,7 +19419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>219</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>220</v>
       </c>
@@ -19501,7 +19501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>221</v>
       </c>
@@ -19542,7 +19542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>222</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>223</v>
       </c>
@@ -19624,7 +19624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>224</v>
       </c>
@@ -19665,7 +19665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>225</v>
       </c>
@@ -19706,7 +19706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>226</v>
       </c>
@@ -19747,7 +19747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>227</v>
       </c>
@@ -19788,7 +19788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>228</v>
       </c>
@@ -19829,7 +19829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>229</v>
       </c>
@@ -19870,7 +19870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>230</v>
       </c>
@@ -19911,7 +19911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>231</v>
       </c>
@@ -19952,7 +19952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>232</v>
       </c>
@@ -19993,7 +19993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>233</v>
       </c>
@@ -20034,7 +20034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>234</v>
       </c>
@@ -20075,7 +20075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>235</v>
       </c>
@@ -20116,7 +20116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>236</v>
       </c>
@@ -20157,7 +20157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>237</v>
       </c>
@@ -20198,7 +20198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>238</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>239</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <v>240</v>
       </c>
@@ -20321,7 +20321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <v>241</v>
       </c>
@@ -20362,7 +20362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <v>242</v>
       </c>
@@ -20403,7 +20403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <v>243</v>
       </c>
@@ -20444,7 +20444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <v>244</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <v>245</v>
       </c>
@@ -20526,7 +20526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <v>246</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <v>247</v>
       </c>
@@ -20608,7 +20608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <v>248</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <v>249</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <v>250</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
         <v>251</v>
       </c>
@@ -20772,7 +20772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
         <v>252</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
         <v>253</v>
       </c>
@@ -20854,7 +20854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
         <v>254</v>
       </c>
@@ -20895,7 +20895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
         <v>255</v>
       </c>
@@ -20936,7 +20936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <v>256</v>
       </c>
@@ -20977,7 +20977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
         <v>257</v>
       </c>
@@ -21018,7 +21018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
         <v>258</v>
       </c>
@@ -21059,7 +21059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
         <v>259</v>
       </c>
@@ -21100,7 +21100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
         <v>260</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
         <v>261</v>
       </c>
@@ -21182,7 +21182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
         <v>262</v>
       </c>
@@ -21223,7 +21223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
         <v>263</v>
       </c>
@@ -21264,7 +21264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
         <v>264</v>
       </c>
@@ -21305,7 +21305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
         <v>265</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
         <v>266</v>
       </c>
@@ -21387,7 +21387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
         <v>267</v>
       </c>
@@ -21428,7 +21428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
         <v>268</v>
       </c>
@@ -21469,7 +21469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
         <v>269</v>
       </c>
@@ -21510,7 +21510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
         <v>270</v>
       </c>
@@ -21551,7 +21551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
         <v>271</v>
       </c>
@@ -21592,7 +21592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
         <v>272</v>
       </c>
@@ -21633,7 +21633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
         <v>273</v>
       </c>
@@ -21674,7 +21674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
         <v>274</v>
       </c>
@@ -21715,7 +21715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
         <v>275</v>
       </c>
@@ -21756,7 +21756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
         <v>276</v>
       </c>
@@ -21797,7 +21797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
         <v>277</v>
       </c>
@@ -21838,7 +21838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
         <v>278</v>
       </c>
@@ -21879,7 +21879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
         <v>279</v>
       </c>
@@ -21920,7 +21920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
         <v>280</v>
       </c>
@@ -21961,7 +21961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
         <v>281</v>
       </c>
@@ -22002,7 +22002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
         <v>282</v>
       </c>
@@ -22043,7 +22043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A284">
         <v>283</v>
       </c>
@@ -22084,7 +22084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A285">
         <v>284</v>
       </c>
@@ -22125,7 +22125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A286">
         <v>285</v>
       </c>
@@ -22166,7 +22166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A287">
         <v>286</v>
       </c>
@@ -22207,7 +22207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A288">
         <v>287</v>
       </c>
@@ -22248,7 +22248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
         <v>288</v>
       </c>
@@ -22289,7 +22289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
         <v>289</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
         <v>290</v>
       </c>
@@ -22371,7 +22371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
         <v>291</v>
       </c>
@@ -22412,7 +22412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
         <v>292</v>
       </c>
@@ -22453,7 +22453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
         <v>293</v>
       </c>
@@ -22494,7 +22494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
         <v>294</v>
       </c>
@@ -22535,7 +22535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
         <v>295</v>
       </c>
@@ -22576,7 +22576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
         <v>296</v>
       </c>
@@ -22617,7 +22617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
         <v>297</v>
       </c>
@@ -22658,7 +22658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
         <v>298</v>
       </c>
@@ -22699,7 +22699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
         <v>299</v>
       </c>
@@ -22740,7 +22740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
         <v>300</v>
       </c>
@@ -22781,7 +22781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A302">
         <v>301</v>
       </c>
@@ -22822,7 +22822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A303">
         <v>302</v>
       </c>
@@ -22863,7 +22863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A304">
         <v>303</v>
       </c>
@@ -22904,7 +22904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A305">
         <v>304</v>
       </c>
@@ -22945,7 +22945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A306">
         <v>305</v>
       </c>
@@ -22986,7 +22986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A307">
         <v>306</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A308">
         <v>307</v>
       </c>
@@ -23068,7 +23068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A309">
         <v>308</v>
       </c>
@@ -23109,7 +23109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A310">
         <v>309</v>
       </c>
@@ -23150,7 +23150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A311">
         <v>310</v>
       </c>
@@ -23191,7 +23191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A312">
         <v>311</v>
       </c>
@@ -23232,7 +23232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A313">
         <v>312</v>
       </c>
@@ -23273,7 +23273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A314">
         <v>313</v>
       </c>
@@ -23314,7 +23314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A315">
         <v>314</v>
       </c>
@@ -23355,7 +23355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A316">
         <v>315</v>
       </c>
@@ -23396,7 +23396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A317">
         <v>316</v>
       </c>
@@ -23437,7 +23437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A318">
         <v>317</v>
       </c>
@@ -23478,7 +23478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A319">
         <v>318</v>
       </c>
@@ -23519,7 +23519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A320">
         <v>319</v>
       </c>
@@ -23560,7 +23560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A321">
         <v>320</v>
       </c>
@@ -23601,7 +23601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A322">
         <v>321</v>
       </c>
@@ -23642,7 +23642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A323">
         <v>322</v>
       </c>
@@ -23683,7 +23683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A324">
         <v>323</v>
       </c>
@@ -23724,7 +23724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A325">
         <v>324</v>
       </c>
@@ -23765,7 +23765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A326">
         <v>325</v>
       </c>
@@ -23806,7 +23806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A327">
         <v>326</v>
       </c>
@@ -23847,7 +23847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A328">
         <v>327</v>
       </c>
@@ -23888,7 +23888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A329">
         <v>328</v>
       </c>
@@ -23929,7 +23929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A330">
         <v>329</v>
       </c>
@@ -23970,7 +23970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A331">
         <v>330</v>
       </c>
@@ -24011,7 +24011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A332">
         <v>331</v>
       </c>
@@ -24052,7 +24052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A333">
         <v>332</v>
       </c>
@@ -24093,7 +24093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A334">
         <v>333</v>
       </c>
@@ -24134,7 +24134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A335">
         <v>334</v>
       </c>
@@ -24175,7 +24175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A336">
         <v>335</v>
       </c>
@@ -24216,7 +24216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A337">
         <v>336</v>
       </c>
@@ -24257,7 +24257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A338">
         <v>337</v>
       </c>
@@ -24298,7 +24298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A339">
         <v>338</v>
       </c>
@@ -24339,7 +24339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A340">
         <v>339</v>
       </c>
@@ -24380,7 +24380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A341">
         <v>340</v>
       </c>
@@ -24421,7 +24421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A342">
         <v>341</v>
       </c>
@@ -24462,7 +24462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A343">
         <v>342</v>
       </c>
@@ -24503,7 +24503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A344">
         <v>343</v>
       </c>
@@ -24544,7 +24544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A345">
         <v>344</v>
       </c>
@@ -24585,7 +24585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A346">
         <v>345</v>
       </c>
@@ -24626,7 +24626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A347">
         <v>346</v>
       </c>
@@ -24667,7 +24667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A348">
         <v>347</v>
       </c>
@@ -24708,7 +24708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A349">
         <v>348</v>
       </c>
@@ -24749,7 +24749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A350">
         <v>349</v>
       </c>
@@ -24790,7 +24790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A351">
         <v>350</v>
       </c>
@@ -24831,7 +24831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A352">
         <v>351</v>
       </c>
@@ -24872,7 +24872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A353">
         <v>352</v>
       </c>
@@ -24913,7 +24913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A354">
         <v>353</v>
       </c>
@@ -24954,7 +24954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A355">
         <v>354</v>
       </c>
@@ -24995,7 +24995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A356">
         <v>355</v>
       </c>
@@ -25036,7 +25036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A357">
         <v>356</v>
       </c>
@@ -25077,7 +25077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A358">
         <v>357</v>
       </c>
@@ -25118,7 +25118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A359">
         <v>358</v>
       </c>
@@ -25159,7 +25159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A360">
         <v>359</v>
       </c>
@@ -25200,7 +25200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A361">
         <v>360</v>
       </c>
@@ -25241,7 +25241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A362">
         <v>361</v>
       </c>
@@ -25282,7 +25282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A363">
         <v>362</v>
       </c>
@@ -25323,7 +25323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A364">
         <v>363</v>
       </c>
@@ -25364,7 +25364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A365">
         <v>364</v>
       </c>
@@ -25405,7 +25405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A366">
         <v>365</v>
       </c>
@@ -25446,7 +25446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A367">
         <v>366</v>
       </c>
@@ -25487,7 +25487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A368">
         <v>367</v>
       </c>
@@ -25528,7 +25528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A369">
         <v>368</v>
       </c>
@@ -25569,7 +25569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A370">
         <v>369</v>
       </c>
@@ -25610,7 +25610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A371">
         <v>370</v>
       </c>
@@ -25651,7 +25651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A372">
         <v>371</v>
       </c>
@@ -25692,7 +25692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A373">
         <v>372</v>
       </c>
@@ -25733,7 +25733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A374">
         <v>373</v>
       </c>
@@ -25774,7 +25774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A375">
         <v>374</v>
       </c>
@@ -25815,7 +25815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A376">
         <v>375</v>
       </c>
@@ -25856,7 +25856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A377">
         <v>376</v>
       </c>
@@ -25897,7 +25897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A378">
         <v>377</v>
       </c>
@@ -25938,7 +25938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A379">
         <v>378</v>
       </c>
@@ -25979,7 +25979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A380">
         <v>379</v>
       </c>
@@ -26020,7 +26020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A381">
         <v>380</v>
       </c>
@@ -26061,7 +26061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A382">
         <v>381</v>
       </c>
@@ -26102,7 +26102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A383">
         <v>382</v>
       </c>
@@ -26143,7 +26143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A384">
         <v>383</v>
       </c>
@@ -26184,7 +26184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A385">
         <v>384</v>
       </c>
@@ -26225,7 +26225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A386">
         <v>385</v>
       </c>
@@ -26266,7 +26266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A387">
         <v>386</v>
       </c>
@@ -26307,7 +26307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A388">
         <v>387</v>
       </c>
@@ -26348,7 +26348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A389">
         <v>388</v>
       </c>
@@ -26389,7 +26389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A390">
         <v>389</v>
       </c>
@@ -26430,7 +26430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A391">
         <v>390</v>
       </c>
@@ -26471,7 +26471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A392">
         <v>391</v>
       </c>
@@ -26512,7 +26512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A393">
         <v>392</v>
       </c>
@@ -26553,7 +26553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A394">
         <v>393</v>
       </c>
@@ -26594,7 +26594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A395">
         <v>394</v>
       </c>
@@ -26635,7 +26635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A396">
         <v>395</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A397">
         <v>396</v>
       </c>
@@ -26717,7 +26717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A398">
         <v>397</v>
       </c>
@@ -26758,7 +26758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A399">
         <v>398</v>
       </c>
@@ -26799,7 +26799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A400">
         <v>399</v>
       </c>
@@ -26840,7 +26840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A401">
         <v>400</v>
       </c>
@@ -26881,7 +26881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A402">
         <v>401</v>
       </c>
@@ -26922,7 +26922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A403">
         <v>402</v>
       </c>
@@ -26963,7 +26963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A404">
         <v>403</v>
       </c>
@@ -27004,7 +27004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A405">
         <v>404</v>
       </c>
@@ -27045,7 +27045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A406">
         <v>405</v>
       </c>
@@ -27086,7 +27086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A407">
         <v>406</v>
       </c>
@@ -27127,7 +27127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A408">
         <v>407</v>
       </c>
@@ -27168,7 +27168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A409">
         <v>408</v>
       </c>
@@ -27209,7 +27209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A410">
         <v>409</v>
       </c>
@@ -27250,7 +27250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A411">
         <v>410</v>
       </c>
@@ -27291,7 +27291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A412">
         <v>411</v>
       </c>
@@ -27332,7 +27332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A413">
         <v>412</v>
       </c>
@@ -27373,7 +27373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A414">
         <v>413</v>
       </c>
@@ -27414,7 +27414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A415">
         <v>414</v>
       </c>
@@ -27455,7 +27455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A416">
         <v>415</v>
       </c>
@@ -27496,7 +27496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A417">
         <v>416</v>
       </c>
@@ -27537,7 +27537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A418">
         <v>417</v>
       </c>
@@ -27578,7 +27578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A419">
         <v>418</v>
       </c>
@@ -27619,7 +27619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A420">
         <v>419</v>
       </c>
@@ -27660,7 +27660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A421">
         <v>420</v>
       </c>
@@ -27701,7 +27701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A422">
         <v>421</v>
       </c>
@@ -27742,7 +27742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A423">
         <v>422</v>
       </c>
@@ -27783,7 +27783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A424">
         <v>423</v>
       </c>
@@ -27824,7 +27824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A425">
         <v>424</v>
       </c>
@@ -27865,7 +27865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A426">
         <v>425</v>
       </c>
@@ -27906,7 +27906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A427">
         <v>426</v>
       </c>
@@ -27947,7 +27947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A428">
         <v>427</v>
       </c>
@@ -27988,7 +27988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A429">
         <v>428</v>
       </c>
@@ -28029,7 +28029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A430">
         <v>429</v>
       </c>
@@ -28070,7 +28070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A431">
         <v>430</v>
       </c>
@@ -28111,7 +28111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A432">
         <v>431</v>
       </c>
@@ -28152,7 +28152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A433">
         <v>432</v>
       </c>
@@ -28193,7 +28193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A434">
         <v>433</v>
       </c>
@@ -28234,7 +28234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A435">
         <v>434</v>
       </c>
@@ -28275,7 +28275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A436">
         <v>435</v>
       </c>
@@ -28316,7 +28316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A437">
         <v>436</v>
       </c>
@@ -28357,7 +28357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A438">
         <v>437</v>
       </c>
@@ -28398,7 +28398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A439">
         <v>438</v>
       </c>
@@ -28439,7 +28439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A440">
         <v>439</v>
       </c>
@@ -28480,7 +28480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A441">
         <v>440</v>
       </c>
@@ -28521,7 +28521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A442">
         <v>441</v>
       </c>
@@ -28562,7 +28562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A443">
         <v>442</v>
       </c>
@@ -28603,7 +28603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A444">
         <v>443</v>
       </c>
@@ -28644,7 +28644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A445">
         <v>444</v>
       </c>
@@ -28685,7 +28685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A446">
         <v>445</v>
       </c>
@@ -28726,7 +28726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A447">
         <v>446</v>
       </c>
@@ -28767,7 +28767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A448">
         <v>447</v>
       </c>
@@ -28808,7 +28808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A449">
         <v>448</v>
       </c>
@@ -28849,7 +28849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A450">
         <v>449</v>
       </c>
@@ -28890,7 +28890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A451">
         <v>450</v>
       </c>
@@ -28931,7 +28931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A452">
         <v>451</v>
       </c>
@@ -28972,7 +28972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A453">
         <v>452</v>
       </c>
@@ -29013,7 +29013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A454">
         <v>453</v>
       </c>
@@ -29054,7 +29054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A455">
         <v>454</v>
       </c>
@@ -29095,7 +29095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A456">
         <v>455</v>
       </c>
@@ -29136,7 +29136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A457">
         <v>456</v>
       </c>
@@ -29177,7 +29177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A458">
         <v>457</v>
       </c>
@@ -29218,7 +29218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A459">
         <v>458</v>
       </c>
@@ -29259,7 +29259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A460">
         <v>459</v>
       </c>
@@ -29300,7 +29300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A461">
         <v>460</v>
       </c>
@@ -29341,7 +29341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A462">
         <v>461</v>
       </c>
@@ -29382,7 +29382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A463">
         <v>462</v>
       </c>
@@ -29423,7 +29423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A464">
         <v>463</v>
       </c>
@@ -29464,7 +29464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A465">
         <v>464</v>
       </c>
@@ -29505,7 +29505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A466">
         <v>465</v>
       </c>
@@ -29546,7 +29546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A467">
         <v>466</v>
       </c>
@@ -29587,7 +29587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A468">
         <v>467</v>
       </c>
@@ -29628,7 +29628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A469">
         <v>468</v>
       </c>
@@ -29669,7 +29669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A470">
         <v>469</v>
       </c>
@@ -29710,7 +29710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A471">
         <v>470</v>
       </c>
@@ -29751,7 +29751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A472">
         <v>471</v>
       </c>
@@ -29792,7 +29792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A473">
         <v>472</v>
       </c>
@@ -29833,7 +29833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A474">
         <v>473</v>
       </c>
@@ -29874,7 +29874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A475">
         <v>474</v>
       </c>
@@ -29915,7 +29915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A476">
         <v>475</v>
       </c>
@@ -29956,7 +29956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A477">
         <v>476</v>
       </c>
@@ -29997,7 +29997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A478">
         <v>477</v>
       </c>
@@ -30038,7 +30038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A479">
         <v>478</v>
       </c>
@@ -30079,7 +30079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A480">
         <v>479</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A481">
         <v>480</v>
       </c>
@@ -30161,7 +30161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A482">
         <v>481</v>
       </c>
@@ -30202,7 +30202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A483">
         <v>482</v>
       </c>
@@ -30243,7 +30243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A484">
         <v>483</v>
       </c>
@@ -30284,7 +30284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A485">
         <v>484</v>
       </c>
@@ -30325,7 +30325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A486">
         <v>485</v>
       </c>
@@ -30366,7 +30366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A487">
         <v>486</v>
       </c>
@@ -30407,7 +30407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A488">
         <v>487</v>
       </c>
@@ -30448,7 +30448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A489">
         <v>488</v>
       </c>
@@ -30489,7 +30489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A490">
         <v>489</v>
       </c>
@@ -30530,7 +30530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A491">
         <v>490</v>
       </c>
@@ -30571,7 +30571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A492">
         <v>491</v>
       </c>
@@ -30612,7 +30612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A493">
         <v>492</v>
       </c>
@@ -30653,7 +30653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A494">
         <v>493</v>
       </c>
@@ -30694,7 +30694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A495">
         <v>494</v>
       </c>
@@ -30735,7 +30735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A496">
         <v>495</v>
       </c>
@@ -30776,7 +30776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A497">
         <v>496</v>
       </c>
@@ -30817,7 +30817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A498">
         <v>497</v>
       </c>
@@ -30858,7 +30858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A499">
         <v>498</v>
       </c>
@@ -30899,7 +30899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A500">
         <v>499</v>
       </c>
@@ -30940,7 +30940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A501">
         <v>500</v>
       </c>
@@ -30981,7 +30981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A502">
         <v>501</v>
       </c>
@@ -31022,7 +31022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A503">
         <v>502</v>
       </c>
@@ -31063,7 +31063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A504">
         <v>503</v>
       </c>
@@ -31104,7 +31104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A505">
         <v>504</v>
       </c>
@@ -31145,7 +31145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A506">
         <v>505</v>
       </c>
@@ -31186,7 +31186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A507">
         <v>506</v>
       </c>
@@ -31227,7 +31227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A508">
         <v>507</v>
       </c>
@@ -31268,7 +31268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A509">
         <v>508</v>
       </c>
@@ -31309,7 +31309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A510">
         <v>509</v>
       </c>
@@ -31350,7 +31350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A511">
         <v>510</v>
       </c>
@@ -31391,7 +31391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A512">
         <v>511</v>
       </c>
@@ -31432,7 +31432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A513">
         <v>512</v>
       </c>
@@ -31473,7 +31473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A514">
         <v>513</v>
       </c>
@@ -31514,7 +31514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A515">
         <v>514</v>
       </c>
@@ -31555,7 +31555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A516">
         <v>515</v>
       </c>
@@ -31596,7 +31596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A517">
         <v>516</v>
       </c>
@@ -31637,7 +31637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A518">
         <v>517</v>
       </c>
@@ -31678,7 +31678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A519">
         <v>518</v>
       </c>
@@ -31719,7 +31719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A520">
         <v>519</v>
       </c>
@@ -31760,7 +31760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A521">
         <v>520</v>
       </c>
@@ -31801,7 +31801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A522">
         <v>521</v>
       </c>
@@ -31842,7 +31842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A523">
         <v>522</v>
       </c>
@@ -31883,7 +31883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A524">
         <v>523</v>
       </c>
@@ -31924,7 +31924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A525">
         <v>524</v>
       </c>
@@ -31965,7 +31965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A526">
         <v>525</v>
       </c>
@@ -32006,7 +32006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A527">
         <v>526</v>
       </c>
@@ -32047,7 +32047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A528">
         <v>527</v>
       </c>
@@ -32088,7 +32088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A529">
         <v>528</v>
       </c>
@@ -32129,7 +32129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A530">
         <v>529</v>
       </c>
@@ -32170,7 +32170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A531">
         <v>530</v>
       </c>
@@ -32211,7 +32211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A532">
         <v>531</v>
       </c>
@@ -32252,7 +32252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A533">
         <v>532</v>
       </c>
@@ -32293,7 +32293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A534">
         <v>533</v>
       </c>
@@ -32334,7 +32334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A535">
         <v>534</v>
       </c>
@@ -32375,7 +32375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A536">
         <v>535</v>
       </c>
@@ -32416,7 +32416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A537">
         <v>536</v>
       </c>
@@ -32457,7 +32457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A538">
         <v>537</v>
       </c>
@@ -32498,7 +32498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A539">
         <v>538</v>
       </c>
@@ -32539,7 +32539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A540">
         <v>539</v>
       </c>
@@ -32580,7 +32580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A541">
         <v>540</v>
       </c>
@@ -32621,7 +32621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A542">
         <v>541</v>
       </c>
@@ -32662,7 +32662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A543">
         <v>542</v>
       </c>
@@ -32703,7 +32703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A544">
         <v>543</v>
       </c>
@@ -32744,7 +32744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A545">
         <v>544</v>
       </c>
@@ -32785,7 +32785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A546">
         <v>545</v>
       </c>
@@ -32826,7 +32826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A547">
         <v>546</v>
       </c>
@@ -32879,19 +32879,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ACD74F-B08D-4A61-99B9-0D58811C68BF}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -32905,7 +32905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -32916,7 +32916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -32927,7 +32927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -32938,7 +32938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -32949,7 +32949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -32960,7 +32960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -32971,7 +32971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -32982,7 +32982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -32993,7 +32993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" t="s">
         <v>8</v>
       </c>
@@ -33004,7 +33004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="s">
         <v>9</v>
       </c>
@@ -33015,7 +33015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -33026,7 +33026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -33037,7 +33037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -33048,7 +33048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -33059,7 +33059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
@@ -33073,7 +33073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
@@ -33087,7 +33087,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
@@ -33101,7 +33101,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
@@ -33115,8 +33115,8 @@
         <v>546</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -33125,11 +33125,11 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="5" t="s">
         <v>31</v>
       </c>
@@ -33137,7 +33137,7 @@
         <v>68121.597069597075</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="5" t="s">
         <v>32</v>
       </c>
@@ -33145,7 +33145,7 @@
         <v>1142.7688200760037</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="5" t="s">
         <v>33</v>
       </c>
@@ -33153,7 +33153,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="5" t="s">
         <v>34</v>
       </c>
@@ -33161,7 +33161,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="5" t="s">
         <v>35</v>
       </c>
@@ -33169,7 +33169,7 @@
         <v>26702.670925794941</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
@@ -33177,7 +33177,7 @@
         <v>713032634.57129443</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="5" t="s">
         <v>37</v>
       </c>
@@ -33185,7 +33185,7 @@
         <v>1.9597399905771766</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="5" t="s">
         <v>38</v>
       </c>
@@ -33193,7 +33193,7 @@
         <v>1.2098292163496824</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="5" t="s">
         <v>39</v>
       </c>
@@ -33201,7 +33201,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="5" t="s">
         <v>40</v>
       </c>
@@ -33209,7 +33209,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="5" t="s">
         <v>41</v>
       </c>
@@ -33217,7 +33217,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="5" t="s">
         <v>42</v>
       </c>
@@ -33225,7 +33225,7 @@
         <v>37194392</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C38" s="6" t="s">
         <v>43</v>
       </c>
@@ -33233,7 +33233,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>44</v>
       </c>
